--- a/data/trans_orig/MOL_RUIDO_TRAF_NOCHE-Clase-trans_orig.xlsx
+++ b/data/trans_orig/MOL_RUIDO_TRAF_NOCHE-Clase-trans_orig.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,61; 2,1</t>
+          <t>1,6; 2,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,8; 2,35</t>
+          <t>1,82; 2,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,78; 2,15</t>
+          <t>1,78; 2,16</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,57; 2,28</t>
+          <t>1,59; 2,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,73; 2,37</t>
+          <t>1,73; 2,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,78; 2,23</t>
+          <t>1,77; 2,22</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,13; 1,96</t>
+          <t>1,13; 1,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,2; 2,48</t>
+          <t>1,25; 2,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,28; 1,95</t>
+          <t>1,27; 1,99</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,23; 1,88</t>
+          <t>1,23; 1,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,57; 2,42</t>
+          <t>1,52; 2,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,49; 2,04</t>
+          <t>1,47; 2,01</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,31; 2,61</t>
+          <t>1,28; 2,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,97; 1,82</t>
+          <t>0,98; 1,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,22; 1,94</t>
+          <t>1,22; 1,92</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,63</t>
+          <t>1,66</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,23; 3,4</t>
+          <t>1,29; 3,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,95; 2,05</t>
+          <t>0,98; 2,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,19; 2,24</t>
+          <t>1,22; 2,34</t>
         </is>
       </c>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,59; 1,91</t>
+          <t>1,58; 1,91</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,71; 2,03</t>
+          <t>1,72; 2,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,7; 1,93</t>
+          <t>1,71; 1,93</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/MOL_RUIDO_TRAF_NOCHE-Clase-trans_orig.xlsx
+++ b/data/trans_orig/MOL_RUIDO_TRAF_NOCHE-Clase-trans_orig.xlsx
@@ -497,7 +497,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Molestia del ruido del tráfico durante la noche en el interior de la vivienda</t>
+          <t>Molestia del ruido del tráfico durante la noche en el interior de la vivienda (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/MOL_RUIDO_TRAF_NOCHE-Clase-trans_orig.xlsx
+++ b/data/trans_orig/MOL_RUIDO_TRAF_NOCHE-Clase-trans_orig.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,6; 2,15</t>
+          <t>1,59; 2,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,82; 2,37</t>
+          <t>1,82; 2,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,78; 2,16</t>
+          <t>1,77; 2,16</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,59; 2,28</t>
+          <t>1,61; 2,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,73; 2,38</t>
+          <t>1,72; 2,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,77; 2,22</t>
+          <t>1,73; 2,23</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,13; 1,98</t>
+          <t>1,1; 1,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,25; 2,56</t>
+          <t>1,3; 2,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,27; 1,99</t>
+          <t>1,29; 2,02</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,23; 1,87</t>
+          <t>1,23; 1,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,52; 2,43</t>
+          <t>1,55; 2,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,47; 2,01</t>
+          <t>1,49; 2,05</t>
         </is>
       </c>
     </row>
@@ -779,7 +779,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,28; 2,51</t>
+          <t>1,26; 2,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -789,7 +789,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,22; 1,92</t>
+          <t>1,19; 1,9</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,29; 3,41</t>
+          <t>1,23; 3,76</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,98; 2,08</t>
+          <t>0,99; 2,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,22; 2,34</t>
+          <t>1,23; 2,29</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,58; 1,91</t>
+          <t>1,6; 1,93</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,72; 2,03</t>
+          <t>1,72; 2,07</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,71; 1,93</t>
+          <t>1,7; 1,93</t>
         </is>
       </c>
     </row>
